--- a/static/version 저장/version.xlsx
+++ b/static/version 저장/version.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\From40\Sparta\gaap\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\From40\Sparta\gaap\static\version 저장\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C758A35B-23DF-4BFB-BCDA-6DA5DCA0184D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0430CAE2-DE18-4BCC-9F83-A91829039551}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="26970" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,7 +47,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>db에서 데이터 import하여 html</t>
+    <t>floating icon</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>

--- a/static/version 저장/version.xlsx
+++ b/static/version 저장/version.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\From40\Sparta\gaap\static\version 저장\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0430CAE2-DE18-4BCC-9F83-A91829039551}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2CA9BF7-3D0B-4192-87BC-5EB9B3F8B39F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="26970" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>파일명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -48,6 +48,14 @@
   </si>
   <si>
     <t>floating icon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>floating icon 수정, content 그리기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -373,10 +381,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -405,6 +413,14 @@
         <v>5</v>
       </c>
     </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
